--- a/卒業課題のやり方.xlsx
+++ b/卒業課題のやり方.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcpro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FromGit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,22 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
-    <t>1.どういう目的で作ったシステムなのか箇条書きで書いてください。</t>
-    <rPh sb="6" eb="8">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>カジョウガ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(例)</t>
     <rPh sb="1" eb="2">
       <t>レイ</t>
@@ -290,12 +274,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1.どういう目的で作ったシステムなのか箇条書きで書いてくださいな。</t>
+    <rPh sb="6" eb="8">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カジョウガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2717,68 +2724,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>1</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
@@ -3191,17 +3196,17 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3249,19 +3254,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -3363,7 +3368,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3377,7 +3382,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -3391,7 +3396,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -3405,7 +3410,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
@@ -3419,7 +3424,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3434,7 +3439,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
